--- a/results/model_performance.xlsx
+++ b/results/model_performance.xlsx
@@ -423,10 +423,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.6289863552943054</v>
+        <v>0.6290410521696344</v>
       </c>
       <c r="C2">
-        <v>0.3164265412133686</v>
+        <v>0.3164498027395917</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -434,7 +434,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.4854755599351276</v>
+        <v>0.4855371476668514</v>
       </c>
       <c r="C3">
         <v>0.6948988377098579</v>
@@ -445,10 +445,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.8929501944643734</v>
+        <v>0.8929623197160764</v>
       </c>
       <c r="C4">
-        <v>0.2048540609137056</v>
+        <v>0.20487356030079</v>
       </c>
     </row>
   </sheetData>
@@ -477,7 +477,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.5282005231543841</v>
+        <v>0.5282451990198115</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -485,7 +485,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.5190248780235505</v>
+        <v>0.5190765994862335</v>
       </c>
     </row>
   </sheetData>

--- a/results/model_performance.xlsx
+++ b/results/model_performance.xlsx
@@ -423,10 +423,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.6290410521696344</v>
+        <v>0.6505652753855917</v>
       </c>
       <c r="C2">
-        <v>0.3164498027395917</v>
+        <v>0.3239546012577356</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -434,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.4855371476668514</v>
+        <v>0.5104454560234108</v>
       </c>
       <c r="C3">
-        <v>0.6948988377098579</v>
+        <v>0.6908527463133148</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -445,10 +445,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.8929623197160764</v>
+        <v>0.8967191460497662</v>
       </c>
       <c r="C4">
-        <v>0.20487356030079</v>
+        <v>0.2115856651939126</v>
       </c>
     </row>
   </sheetData>
@@ -477,7 +477,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.5282451990198115</v>
+        <v>0.5388968606257292</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -485,7 +485,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.5190765994862335</v>
+        <v>0.539271932520575</v>
       </c>
     </row>
   </sheetData>
@@ -517,10 +517,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.6933236063594285</v>
+        <v>0.7155667407823686</v>
       </c>
       <c r="C2">
-        <v>0.3320366007342063</v>
+        <v>0.3400419524916378</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -528,10 +528,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.5658064913469237</v>
+        <v>0.5951471305478784</v>
       </c>
       <c r="C3">
-        <v>0.6521739130434783</v>
+        <v>0.6409489207095533</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -539,10 +539,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.8950410807651089</v>
+        <v>0.8970777430619371</v>
       </c>
       <c r="C4">
-        <v>0.2227122381477398</v>
+        <v>0.2314043209876543</v>
       </c>
     </row>
   </sheetData>
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.6335975910773362</v>
+        <v>0.6400000894026562</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.5796424322879851</v>
+        <v>0.6024655943721613</v>
       </c>
     </row>
   </sheetData>

--- a/results/model_performance.xlsx
+++ b/results/model_performance.xlsx
@@ -1,75 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="lr_confusion" sheetId="1" r:id="rId1"/>
-    <sheet name="lr_accuracy" sheetId="2" r:id="rId2"/>
-    <sheet name="lgbm_confusion" sheetId="3" r:id="rId3"/>
-    <sheet name="lgbm_accuracy" sheetId="4" r:id="rId4"/>
+    <sheet name="lr_confusion" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="lr_accuracy" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="lgbm_confusion" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="lgbm_accuracy" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
-  <si>
-    <t>renwed</t>
-  </si>
-  <si>
-    <t>not_renwed</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>f1</t>
-  </si>
-  <si>
-    <t>recall</t>
-  </si>
-  <si>
-    <t>precision</t>
-  </si>
-  <si>
-    <t>accuracy</t>
-  </si>
-  <si>
-    <t>train</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,35 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -400,189 +424,253 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0.6505652753855917</v>
-      </c>
-      <c r="C2">
-        <v>0.3239546012577356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0.5104454560234108</v>
-      </c>
-      <c r="C3">
-        <v>0.6908527463133148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0.8967191460497662</v>
-      </c>
-      <c r="C4">
-        <v>0.2115856651939126</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>renwed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>not_renwed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6510189558129003</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3238486800872421</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5109265201673504</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.690876029521874</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8969586765072913</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2114931237721022</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>0.5388968606257292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>0.539271932520575</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>train</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5388243969475883</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>validation</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5396419000802226</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0.7155667407823686</v>
-      </c>
-      <c r="C2">
-        <v>0.3400419524916378</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0.5951471305478784</v>
-      </c>
-      <c r="C3">
-        <v>0.6409489207095533</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0.8970777430619371</v>
-      </c>
-      <c r="C4">
-        <v>0.2314043209876543</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>renwed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>not_renwed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7138994580177889</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3400965092981911</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5925504691498437</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6445609156059472</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8977507000215391</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2309874271695799</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>0.6400000894026562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>0.6024655943721613</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>train</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6377037641196385</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>validation</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6008500179220646</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>